--- a/TAP_POM_Framework/data/TC0124.xlsx
+++ b/TAP_POM_Framework/data/TC0124.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>Kingpin</t>
   </si>
   <si>
-    <t>Final Checking</t>
-  </si>
-  <si>
-    <t>2019-08-25'</t>
+    <t>Final Checking1</t>
+  </si>
+  <si>
+    <t>2019-08-26'</t>
   </si>
 </sst>
 </file>
